--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2680.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2680.xlsx
@@ -354,7 +354,7 @@
         <v>2.421069917205492</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.330107380530294</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2680.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2680.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161237063005872</v>
+        <v>0.9220431447029114</v>
       </c>
       <c r="B1">
-        <v>2.421069917205492</v>
+        <v>1.255401253700256</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.110778331756592</v>
       </c>
       <c r="D1">
-        <v>2.330107380530294</v>
+        <v>4.580045700073242</v>
       </c>
       <c r="E1">
-        <v>1.213125583413818</v>
+        <v>2.136010646820068</v>
       </c>
     </row>
   </sheetData>
